--- a/STM32F051C8T6/MIS PROYECTOS/PORTABLE DIGITAL SOURCE V1.3 DMA/DESIGN POWER 2025 CALCULOS.xlsx
+++ b/STM32F051C8T6/MIS PROYECTOS/PORTABLE DIGITAL SOURCE V1.3 DMA/DESIGN POWER 2025 CALCULOS.xlsx
@@ -92,9 +92,6 @@
     <t xml:space="preserve">Vout </t>
   </si>
   <si>
-    <t>Vadc  =</t>
-  </si>
-  <si>
     <t>Vout  =</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Solo modificar los 3 parametros del cuadro verde y de ahí se obtiene R1 R2 y R3</t>
+  </si>
+  <si>
+    <t>Vdac  =</t>
   </si>
 </sst>
 </file>
@@ -176,12 +176,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
@@ -219,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,12 +315,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -342,29 +336,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1043,7 @@
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" style="12" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="4.7109375" customWidth="1"/>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13"/>
     </row>
@@ -1107,12 +1107,12 @@
       <c r="H18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="36">
-        <v>20</v>
+      <c r="I18" s="32">
+        <v>30</v>
       </c>
       <c r="J18"/>
       <c r="K18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="8:15" x14ac:dyDescent="0.25">
@@ -1122,10 +1122,10 @@
       <c r="I19" s="6">
         <v>0.26400000000000001</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="40">
+      <c r="J19" s="37"/>
+      <c r="K19" s="36">
         <f>I30-K30*I19</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="8:15" x14ac:dyDescent="0.25">
@@ -1135,106 +1135,106 @@
       <c r="I20" s="6">
         <v>3.3</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="40">
+      <c r="J20" s="37"/>
+      <c r="K20" s="36">
         <f>I30-K30*I20</f>
-        <v>-0.32210953346855575</v>
+        <v>-1.1605679513184555</v>
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H21" s="35"/>
-      <c r="I21" s="37"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="31">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="31">
         <v>15000</v>
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="31">
         <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="35">
         <f>(I18-I24)/I22</f>
-        <v>375000</v>
+        <v>575000</v>
       </c>
     </row>
     <row r="27" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="35">
         <f>I23*(I24-I19)/I19</f>
         <v>56022.727272727272</v>
       </c>
     </row>
     <row r="28" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="39">
+      <c r="I28" s="35">
         <f>I24/(I22-I24/(I27+I23))</f>
         <v>38580.246913580246</v>
       </c>
     </row>
     <row r="30" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="33">
+        <v>22</v>
+      </c>
+      <c r="I30" s="29">
         <f>I24+(I26*I24/I28)+(I26*I24/I27)</f>
-        <v>21.76713995943205</v>
+        <v>32.709614604462473</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="30">
         <f>I26/I27</f>
-        <v>6.6937119675456387</v>
+        <v>10.263691683569979</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H31" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="H31" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="39">
         <f>I30/K30</f>
-        <v>3.2518787878787885</v>
-      </c>
-      <c r="J31" s="11" t="s">
+        <v>3.1869249011857708</v>
+      </c>
+      <c r="J31" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="39">
         <f>1/K30</f>
-        <v>0.14939393939393941</v>
-      </c>
-      <c r="L31" s="12" t="s">
+        <v>9.7430830039525698E-2</v>
+      </c>
+      <c r="L31" s="41" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       <c r="H94" s="2"/>
     </row>
     <row r="95" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G95" s="15"/>
+      <c r="G95" s="11"/>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="7:8" x14ac:dyDescent="0.25">
@@ -1302,157 +1302,157 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="17"/>
+      <c r="J107" s="13"/>
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-      <c r="J108" s="17"/>
+      <c r="J108" s="13"/>
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="18"/>
+      <c r="J109" s="14"/>
       <c r="K109" s="2"/>
     </row>
     <row r="110" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="4"/>
-      <c r="J110" s="19"/>
+      <c r="J110" s="15"/>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="20"/>
+      <c r="J111" s="16"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="20"/>
+      <c r="J112" s="16"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="20"/>
+      <c r="J113" s="16"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="20"/>
+      <c r="J114" s="16"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="20"/>
+      <c r="J115" s="16"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="20"/>
+      <c r="J116" s="16"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="20"/>
+      <c r="J117" s="16"/>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="20"/>
+      <c r="J118" s="16"/>
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="20"/>
+      <c r="J119" s="16"/>
       <c r="K119" s="2"/>
     </row>
     <row r="120" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="4"/>
-      <c r="J120" s="20"/>
+      <c r="J120" s="16"/>
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="4"/>
-      <c r="J121" s="20"/>
+      <c r="J121" s="16"/>
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="20"/>
+      <c r="J122" s="16"/>
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="20"/>
+      <c r="J123" s="16"/>
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="20"/>
+      <c r="J124" s="16"/>
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="20"/>
+      <c r="J125" s="16"/>
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="20"/>
+      <c r="J126" s="16"/>
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="4"/>
-      <c r="J127" s="20"/>
+      <c r="J127" s="16"/>
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I128" s="4"/>
-      <c r="J128" s="20"/>
+      <c r="J128" s="16"/>
       <c r="K128" s="2"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I129" s="4"/>
-      <c r="J129" s="20"/>
+      <c r="J129" s="16"/>
       <c r="K129" s="2"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
@@ -1464,7 +1464,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="4"/>
-      <c r="J130" s="20"/>
+      <c r="J130" s="16"/>
       <c r="K130" s="2"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="4"/>
-      <c r="J131" s="20"/>
+      <c r="J131" s="16"/>
       <c r="K131" s="2"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="4"/>
-      <c r="J132" s="20"/>
+      <c r="J132" s="16"/>
       <c r="K132" s="2"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="4"/>
-      <c r="J133" s="20"/>
+      <c r="J133" s="16"/>
       <c r="K133" s="2"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="4"/>
-      <c r="J134" s="20"/>
+      <c r="J134" s="16"/>
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="4"/>
-      <c r="J135" s="20"/>
+      <c r="J135" s="16"/>
       <c r="K135" s="2"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="4"/>
-      <c r="J136" s="20"/>
+      <c r="J136" s="16"/>
       <c r="K136" s="2"/>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="4"/>
-      <c r="J137" s="20"/>
+      <c r="J137" s="16"/>
       <c r="K137" s="2"/>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="4"/>
-      <c r="J138" s="20"/>
+      <c r="J138" s="16"/>
       <c r="K138" s="2"/>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="4"/>
-      <c r="J139" s="20"/>
+      <c r="J139" s="16"/>
       <c r="K139" s="2"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="4"/>
-      <c r="J140" s="20"/>
+      <c r="J140" s="16"/>
       <c r="K140" s="2"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
-      <c r="J141" s="17"/>
+      <c r="J141" s="13"/>
       <c r="K141" s="2"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
-      <c r="J142" s="17"/>
+      <c r="J142" s="13"/>
       <c r="K142" s="2"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="3"/>
-      <c r="J145" s="18"/>
+      <c r="J145" s="14"/>
       <c r="K145" s="3"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="5"/>
-      <c r="J146" s="20"/>
+      <c r="J146" s="16"/>
       <c r="K146" s="5"/>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="5"/>
-      <c r="J147" s="20"/>
+      <c r="J147" s="16"/>
       <c r="K147" s="5"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="5"/>
-      <c r="J148" s="20"/>
+      <c r="J148" s="16"/>
       <c r="K148" s="5"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
@@ -1690,7 +1690,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="5"/>
-      <c r="J149" s="20"/>
+      <c r="J149" s="16"/>
       <c r="K149" s="5"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
@@ -1706,7 +1706,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="5"/>
-      <c r="J150" s="20"/>
+      <c r="J150" s="16"/>
       <c r="K150" s="5"/>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -1722,7 +1722,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="5"/>
-      <c r="J151" s="20"/>
+      <c r="J151" s="16"/>
       <c r="K151" s="5"/>
       <c r="Q151" s="4"/>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="5"/>
-      <c r="J152" s="20"/>
+      <c r="J152" s="16"/>
       <c r="K152" s="5"/>
       <c r="Q152" s="4"/>
     </row>
@@ -1748,7 +1748,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="5"/>
-      <c r="J153" s="20"/>
+      <c r="J153" s="16"/>
       <c r="K153" s="5"/>
       <c r="Q153" s="4"/>
     </row>
@@ -1761,7 +1761,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="5"/>
-      <c r="J154" s="20"/>
+      <c r="J154" s="16"/>
       <c r="K154" s="5"/>
       <c r="Q154" s="4"/>
     </row>
@@ -1774,7 +1774,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="5"/>
-      <c r="J155" s="20"/>
+      <c r="J155" s="16"/>
       <c r="K155" s="5"/>
       <c r="Q155" s="4"/>
     </row>
@@ -1787,7 +1787,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="5"/>
-      <c r="J156" s="20"/>
+      <c r="J156" s="16"/>
       <c r="K156" s="5"/>
       <c r="Q156" s="4"/>
     </row>
@@ -1800,7 +1800,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="5"/>
-      <c r="J157" s="20"/>
+      <c r="J157" s="16"/>
       <c r="K157" s="5"/>
       <c r="Q157" s="4"/>
     </row>
@@ -1813,7 +1813,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="5"/>
-      <c r="J158" s="20"/>
+      <c r="J158" s="16"/>
       <c r="K158" s="5"/>
       <c r="Q158" s="4"/>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="5"/>
-      <c r="J159" s="20"/>
+      <c r="J159" s="16"/>
       <c r="K159" s="5"/>
       <c r="Q159" s="4"/>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="5"/>
-      <c r="J160" s="20"/>
+      <c r="J160" s="16"/>
       <c r="K160" s="5"/>
       <c r="Q160" s="4"/>
     </row>
@@ -1852,25 +1852,25 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="5"/>
-      <c r="J161" s="20"/>
+      <c r="J161" s="16"/>
       <c r="K161" s="5"/>
       <c r="Q161" s="4"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I162" s="5"/>
-      <c r="J162" s="20"/>
+      <c r="J162" s="16"/>
       <c r="K162" s="5"/>
       <c r="Q162" s="4"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I163" s="5"/>
-      <c r="J163" s="20"/>
+      <c r="J163" s="16"/>
       <c r="K163" s="5"/>
       <c r="Q163" s="4"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I164" s="5"/>
-      <c r="J164" s="20"/>
+      <c r="J164" s="16"/>
       <c r="K164" s="5"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I165" s="5"/>
-      <c r="J165" s="20"/>
+      <c r="J165" s="16"/>
       <c r="K165" s="5"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -1892,12 +1892,12 @@
       <c r="B166" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
       <c r="I166" s="5"/>
-      <c r="J166" s="20"/>
+      <c r="J166" s="16"/>
       <c r="K166" s="5"/>
       <c r="M166" s="2"/>
       <c r="N166" s="3"/>
@@ -1906,15 +1906,15 @@
       <c r="Q166" s="4"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B167" s="14"/>
-      <c r="C167" s="14" t="s">
+      <c r="B167" s="10"/>
+      <c r="C167" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
       <c r="I167" s="5"/>
-      <c r="J167" s="20"/>
+      <c r="J167" s="16"/>
       <c r="K167" s="5"/>
       <c r="M167" s="2"/>
       <c r="N167" s="4"/>
@@ -1923,16 +1923,16 @@
       <c r="Q167" s="4"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14" t="s">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
       <c r="I168" s="5"/>
-      <c r="J168" s="20"/>
+      <c r="J168" s="16"/>
       <c r="K168" s="5"/>
       <c r="M168" s="2"/>
       <c r="N168" s="4"/>
@@ -1941,12 +1941,12 @@
       <c r="Q168" s="4"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="10"/>
       <c r="E169" t="s">
         <v>16</v>
       </c>
       <c r="I169" s="5"/>
-      <c r="J169" s="20"/>
+      <c r="J169" s="16"/>
       <c r="K169" s="5"/>
       <c r="M169" s="2"/>
       <c r="N169" s="4"/>
@@ -1955,9 +1955,9 @@
       <c r="Q169" s="4"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
+      <c r="A170" s="10"/>
       <c r="I170" s="5"/>
-      <c r="J170" s="20"/>
+      <c r="J170" s="16"/>
       <c r="K170" s="5"/>
       <c r="M170" s="2"/>
       <c r="N170" s="4"/>
@@ -1966,14 +1966,14 @@
       <c r="Q170" s="4"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="10"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="I171" s="5"/>
-      <c r="J171" s="20"/>
+      <c r="J171" s="16"/>
       <c r="K171" s="5"/>
       <c r="M171" s="2"/>
       <c r="N171" s="4"/>
@@ -1982,14 +1982,14 @@
       <c r="Q171" s="4"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="10"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="I172" s="5"/>
-      <c r="J172" s="20"/>
+      <c r="J172" s="16"/>
       <c r="K172" s="5"/>
       <c r="M172" s="2"/>
       <c r="N172" s="4"/>
@@ -1998,7 +1998,7 @@
       <c r="Q172" s="4"/>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
+      <c r="A173" s="10"/>
       <c r="B173" s="1" t="s">
         <v>7</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="I173" s="5"/>
-      <c r="J173" s="21" t="s">
+      <c r="J173" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K173" s="5"/>
@@ -2030,33 +2030,34 @@
       <c r="Q173" s="4"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
-      <c r="B174" s="23">
+      <c r="A174" s="10"/>
+      <c r="B174" s="19">
         <v>1</v>
       </c>
-      <c r="C174" s="25">
-        <v>3810</v>
-      </c>
-      <c r="D174" s="26">
+      <c r="C174" s="21">
+        <f>(3.1677-B174*0.09825)*4096/3.3</f>
+        <v>3809.8385454545455</v>
+      </c>
+      <c r="D174" s="22">
         <v>3760</v>
       </c>
-      <c r="E174" s="27">
+      <c r="E174" s="23">
         <f>C174-D174</f>
-        <v>50</v>
-      </c>
-      <c r="F174" s="28"/>
-      <c r="G174" s="25">
+        <v>49.83854545454551</v>
+      </c>
+      <c r="F174" s="24"/>
+      <c r="G174" s="21">
         <f>C174</f>
-        <v>3810</v>
-      </c>
-      <c r="H174" s="25">
+        <v>3809.8385454545455</v>
+      </c>
+      <c r="H174" s="21">
         <f>0.978*G174+30.54</f>
-        <v>3756.72</v>
+        <v>3756.5620974545454</v>
       </c>
       <c r="I174" s="5"/>
-      <c r="J174" s="30">
+      <c r="J174" s="26">
         <f t="shared" ref="J174:J204" si="0">D174-H174</f>
-        <v>3.2800000000002001</v>
+        <v>3.4379025454545626</v>
       </c>
       <c r="K174" s="5"/>
       <c r="M174" s="2"/>
@@ -2066,33 +2067,34 @@
       <c r="Q174" s="4"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
-      <c r="B175" s="24">
+      <c r="A175" s="10"/>
+      <c r="B175" s="20">
         <v>1.5</v>
       </c>
-      <c r="C175" s="25">
-        <v>3749</v>
-      </c>
-      <c r="D175" s="31">
+      <c r="C175" s="21">
+        <f t="shared" ref="C175:C204" si="1">(3.1677-B175*0.09825)*4096/3.3</f>
+        <v>3748.8640000000005</v>
+      </c>
+      <c r="D175" s="27">
         <v>3700</v>
       </c>
-      <c r="E175" s="27">
-        <f t="shared" ref="E175:E204" si="1">C175-D175</f>
-        <v>49</v>
-      </c>
-      <c r="F175" s="28"/>
-      <c r="G175" s="25">
-        <f t="shared" ref="G175:G203" si="2">C175</f>
-        <v>3749</v>
-      </c>
-      <c r="H175" s="25">
-        <f t="shared" ref="H175:H204" si="3">0.978*G175+30.54</f>
-        <v>3697.0619999999999</v>
+      <c r="E175" s="23">
+        <f t="shared" ref="E175:E204" si="2">C175-D175</f>
+        <v>48.864000000000487</v>
+      </c>
+      <c r="F175" s="24"/>
+      <c r="G175" s="21">
+        <f t="shared" ref="G175:G203" si="3">C175</f>
+        <v>3748.8640000000005</v>
+      </c>
+      <c r="H175" s="21">
+        <f t="shared" ref="H175:H204" si="4">0.978*G175+30.54</f>
+        <v>3696.9289920000006</v>
       </c>
       <c r="I175" s="5"/>
-      <c r="J175" s="30">
+      <c r="J175" s="26">
         <f t="shared" si="0"/>
-        <v>2.9380000000001019</v>
+        <v>3.0710079999994377</v>
       </c>
       <c r="K175" s="5"/>
       <c r="M175" s="2"/>
@@ -2102,33 +2104,34 @@
       <c r="Q175" s="4"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
-      <c r="B176" s="23">
+      <c r="A176" s="10"/>
+      <c r="B176" s="19">
         <v>2</v>
       </c>
-      <c r="C176" s="25">
-        <v>3688</v>
-      </c>
-      <c r="D176" s="26">
+      <c r="C176" s="21">
+        <f t="shared" si="1"/>
+        <v>3687.889454545455</v>
+      </c>
+      <c r="D176" s="22">
         <v>3637</v>
       </c>
-      <c r="E176" s="27">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="F176" s="28"/>
-      <c r="G176" s="25">
+      <c r="E176" s="23">
         <f t="shared" si="2"/>
-        <v>3688</v>
-      </c>
-      <c r="H176" s="25">
+        <v>50.88945454545501</v>
+      </c>
+      <c r="F176" s="24"/>
+      <c r="G176" s="21">
         <f t="shared" si="3"/>
-        <v>3637.404</v>
+        <v>3687.889454545455</v>
+      </c>
+      <c r="H176" s="21">
+        <f t="shared" si="4"/>
+        <v>3637.2958865454548</v>
       </c>
       <c r="I176" s="5"/>
-      <c r="J176" s="30">
+      <c r="J176" s="26">
         <f t="shared" si="0"/>
-        <v>-0.40399999999999636</v>
+        <v>-0.29588654545477766</v>
       </c>
       <c r="K176" s="5"/>
       <c r="M176" s="2"/>
@@ -2138,33 +2141,34 @@
       <c r="Q176" s="4"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
-      <c r="B177" s="24">
+      <c r="A177" s="10"/>
+      <c r="B177" s="20">
         <f>B176+1</f>
         <v>3</v>
       </c>
-      <c r="C177" s="25">
-        <v>3566</v>
-      </c>
-      <c r="D177" s="31">
+      <c r="C177" s="21">
+        <f t="shared" si="1"/>
+        <v>3565.9403636363636</v>
+      </c>
+      <c r="D177" s="27">
         <v>3515</v>
       </c>
-      <c r="E177" s="27">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="F177" s="28"/>
-      <c r="G177" s="25">
+      <c r="E177" s="23">
         <f t="shared" si="2"/>
-        <v>3566</v>
-      </c>
-      <c r="H177" s="25">
+        <v>50.9403636363636</v>
+      </c>
+      <c r="F177" s="24"/>
+      <c r="G177" s="21">
         <f t="shared" si="3"/>
-        <v>3518.0879999999997</v>
-      </c>
-      <c r="J177" s="30">
+        <v>3565.9403636363636</v>
+      </c>
+      <c r="H177" s="21">
+        <f t="shared" si="4"/>
+        <v>3518.0296756363637</v>
+      </c>
+      <c r="J177" s="26">
         <f t="shared" si="0"/>
-        <v>-3.0879999999997381</v>
+        <v>-3.0296756363636632</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="4"/>
@@ -2173,33 +2177,34 @@
       <c r="Q177" s="4"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
-      <c r="B178" s="23">
-        <f t="shared" ref="B178:B203" si="4">B177+1</f>
+      <c r="A178" s="10"/>
+      <c r="B178" s="19">
+        <f t="shared" ref="B178:B203" si="5">B177+1</f>
         <v>4</v>
       </c>
-      <c r="C178" s="25">
-        <v>3444</v>
-      </c>
-      <c r="D178" s="26">
+      <c r="C178" s="21">
+        <f t="shared" si="1"/>
+        <v>3443.9912727272731</v>
+      </c>
+      <c r="D178" s="22">
         <v>3392</v>
       </c>
-      <c r="E178" s="27">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="F178" s="28"/>
-      <c r="G178" s="25">
+      <c r="E178" s="23">
         <f t="shared" si="2"/>
-        <v>3444</v>
-      </c>
-      <c r="H178" s="25">
+        <v>51.991272727273099</v>
+      </c>
+      <c r="F178" s="24"/>
+      <c r="G178" s="21">
         <f t="shared" si="3"/>
-        <v>3398.7719999999999</v>
-      </c>
-      <c r="J178" s="30">
+        <v>3443.9912727272731</v>
+      </c>
+      <c r="H178" s="21">
+        <f t="shared" si="4"/>
+        <v>3398.763464727273</v>
+      </c>
+      <c r="J178" s="26">
         <f t="shared" si="0"/>
-        <v>-6.7719999999999345</v>
+        <v>-6.7634647272730035</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="4"/>
@@ -2208,33 +2213,34 @@
       <c r="Q178" s="4"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
-      <c r="B179" s="24">
+      <c r="A179" s="10"/>
+      <c r="B179" s="20">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C179" s="21">
+        <f t="shared" si="1"/>
+        <v>3322.0421818181821</v>
+      </c>
+      <c r="D179" s="27">
+        <v>3272</v>
+      </c>
+      <c r="E179" s="23">
+        <f t="shared" si="2"/>
+        <v>50.042181818182144</v>
+      </c>
+      <c r="F179" s="24"/>
+      <c r="G179" s="21">
+        <f t="shared" si="3"/>
+        <v>3322.0421818181821</v>
+      </c>
+      <c r="H179" s="21">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C179" s="25">
-        <v>3322</v>
-      </c>
-      <c r="D179" s="31">
-        <v>3272</v>
-      </c>
-      <c r="E179" s="27">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F179" s="28"/>
-      <c r="G179" s="25">
-        <f t="shared" si="2"/>
-        <v>3322</v>
-      </c>
-      <c r="H179" s="25">
-        <f t="shared" si="3"/>
-        <v>3279.4559999999997</v>
-      </c>
-      <c r="J179" s="30">
+        <v>3279.4972538181819</v>
+      </c>
+      <c r="J179" s="26">
         <f t="shared" si="0"/>
-        <v>-7.4559999999996762</v>
+        <v>-7.4972538181818891</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="4"/>
@@ -2243,33 +2249,34 @@
       <c r="Q179" s="4"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
-      <c r="B180" s="23">
+      <c r="A180" s="10"/>
+      <c r="B180" s="19">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C180" s="21">
+        <f t="shared" si="1"/>
+        <v>3200.0930909090907</v>
+      </c>
+      <c r="D180" s="22">
+        <v>3147</v>
+      </c>
+      <c r="E180" s="23">
+        <f t="shared" si="2"/>
+        <v>53.093090909090733</v>
+      </c>
+      <c r="F180" s="24"/>
+      <c r="G180" s="21">
+        <f t="shared" si="3"/>
+        <v>3200.0930909090907</v>
+      </c>
+      <c r="H180" s="21">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C180" s="25">
-        <v>3200</v>
-      </c>
-      <c r="D180" s="26">
-        <v>3147</v>
-      </c>
-      <c r="E180" s="27">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="F180" s="28"/>
-      <c r="G180" s="25">
-        <f t="shared" si="2"/>
-        <v>3200</v>
-      </c>
-      <c r="H180" s="25">
-        <f t="shared" si="3"/>
-        <v>3160.14</v>
-      </c>
-      <c r="J180" s="30">
+        <v>3160.2310429090908</v>
+      </c>
+      <c r="J180" s="26">
         <f t="shared" si="0"/>
-        <v>-13.139999999999873</v>
+        <v>-13.231042909090775</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" s="4"/>
@@ -2278,33 +2285,34 @@
       <c r="Q180" s="4"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
-      <c r="B181" s="24">
+      <c r="A181" s="10"/>
+      <c r="B181" s="20">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="C181" s="21">
+        <f t="shared" si="1"/>
+        <v>3078.1439999999998</v>
+      </c>
+      <c r="D181" s="27">
+        <v>3027</v>
+      </c>
+      <c r="E181" s="23">
+        <f t="shared" si="2"/>
+        <v>51.143999999999778</v>
+      </c>
+      <c r="F181" s="24"/>
+      <c r="G181" s="21">
+        <f t="shared" si="3"/>
+        <v>3078.1439999999998</v>
+      </c>
+      <c r="H181" s="21">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C181" s="25">
-        <v>3078</v>
-      </c>
-      <c r="D181" s="31">
-        <v>3027</v>
-      </c>
-      <c r="E181" s="27">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="F181" s="28"/>
-      <c r="G181" s="25">
-        <f t="shared" si="2"/>
-        <v>3078</v>
-      </c>
-      <c r="H181" s="25">
-        <f t="shared" si="3"/>
-        <v>3040.8240000000001</v>
-      </c>
-      <c r="J181" s="30">
+        <v>3040.9648319999997</v>
+      </c>
+      <c r="J181" s="26">
         <f t="shared" si="0"/>
-        <v>-13.824000000000069</v>
+        <v>-13.96483199999966</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" s="4"/>
@@ -2313,33 +2321,34 @@
       <c r="Q181" s="4"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
-      <c r="B182" s="23">
+      <c r="A182" s="10"/>
+      <c r="B182" s="19">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C182" s="21">
+        <f t="shared" si="1"/>
+        <v>2956.1949090909093</v>
+      </c>
+      <c r="D182" s="27">
+        <v>2915</v>
+      </c>
+      <c r="E182" s="23">
+        <f t="shared" si="2"/>
+        <v>41.194909090909277</v>
+      </c>
+      <c r="F182" s="24"/>
+      <c r="G182" s="21">
+        <f t="shared" si="3"/>
+        <v>2956.1949090909093</v>
+      </c>
+      <c r="H182" s="21">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="C182" s="25">
-        <v>2956</v>
-      </c>
-      <c r="D182" s="31">
-        <v>2915</v>
-      </c>
-      <c r="E182" s="27">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F182" s="28"/>
-      <c r="G182" s="25">
-        <f t="shared" si="2"/>
-        <v>2956</v>
-      </c>
-      <c r="H182" s="25">
-        <f t="shared" si="3"/>
-        <v>2921.5079999999998</v>
-      </c>
-      <c r="J182" s="30">
+        <v>2921.698621090909</v>
+      </c>
+      <c r="J182" s="26">
         <f t="shared" si="0"/>
-        <v>-6.5079999999998108</v>
+        <v>-6.6986210909090005</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="4"/>
@@ -2348,33 +2357,34 @@
       <c r="Q182" s="2"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
-      <c r="B183" s="24">
+      <c r="A183" s="10"/>
+      <c r="B183" s="20">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C183" s="21">
+        <f t="shared" si="1"/>
+        <v>2834.2458181818188</v>
+      </c>
+      <c r="D183" s="27">
+        <v>2808</v>
+      </c>
+      <c r="E183" s="23">
+        <f t="shared" si="2"/>
+        <v>26.245818181818777</v>
+      </c>
+      <c r="F183" s="24"/>
+      <c r="G183" s="21">
+        <f t="shared" si="3"/>
+        <v>2834.2458181818188</v>
+      </c>
+      <c r="H183" s="21">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C183" s="25">
-        <v>2834</v>
-      </c>
-      <c r="D183" s="31">
-        <v>2808</v>
-      </c>
-      <c r="E183" s="27">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="F183" s="28"/>
-      <c r="G183" s="25">
-        <f t="shared" si="2"/>
-        <v>2834</v>
-      </c>
-      <c r="H183" s="25">
-        <f t="shared" si="3"/>
-        <v>2802.192</v>
-      </c>
-      <c r="J183" s="30">
+        <v>2802.4324101818188</v>
+      </c>
+      <c r="J183" s="26">
         <f t="shared" si="0"/>
-        <v>5.8079999999999927</v>
+        <v>5.5675898181812045</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" s="4"/>
@@ -2383,33 +2393,34 @@
       <c r="Q183" s="2"/>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A184" s="14"/>
-      <c r="B184" s="23">
+      <c r="A184" s="10"/>
+      <c r="B184" s="19">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C184" s="21">
+        <f t="shared" si="1"/>
+        <v>2712.2967272727274</v>
+      </c>
+      <c r="D184" s="22">
+        <v>2689</v>
+      </c>
+      <c r="E184" s="23">
+        <f t="shared" si="2"/>
+        <v>23.296727272727367</v>
+      </c>
+      <c r="F184" s="24"/>
+      <c r="G184" s="21">
+        <f t="shared" si="3"/>
+        <v>2712.2967272727274</v>
+      </c>
+      <c r="H184" s="21">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C184" s="25">
-        <v>2712</v>
-      </c>
-      <c r="D184" s="26">
-        <v>2689</v>
-      </c>
-      <c r="E184" s="27">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="F184" s="28"/>
-      <c r="G184" s="25">
-        <f t="shared" si="2"/>
-        <v>2712</v>
-      </c>
-      <c r="H184" s="25">
-        <f t="shared" si="3"/>
-        <v>2682.8759999999997</v>
-      </c>
-      <c r="J184" s="30">
+        <v>2683.1661992727272</v>
+      </c>
+      <c r="J184" s="26">
         <f t="shared" si="0"/>
-        <v>6.124000000000251</v>
+        <v>5.8338007272727737</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="4"/>
@@ -2417,33 +2428,34 @@
       <c r="P184" s="4"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
-      <c r="B185" s="24">
+      <c r="A185" s="10"/>
+      <c r="B185" s="20">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="C185" s="21">
+        <f t="shared" si="1"/>
+        <v>2590.3476363636364</v>
+      </c>
+      <c r="D185" s="27">
+        <v>2571</v>
+      </c>
+      <c r="E185" s="23">
+        <f t="shared" si="2"/>
+        <v>19.347636363636411</v>
+      </c>
+      <c r="F185" s="24"/>
+      <c r="G185" s="21">
+        <f t="shared" si="3"/>
+        <v>2590.3476363636364</v>
+      </c>
+      <c r="H185" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C185" s="25">
-        <v>2590</v>
-      </c>
-      <c r="D185" s="31">
-        <v>2571</v>
-      </c>
-      <c r="E185" s="27">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="F185" s="28"/>
-      <c r="G185" s="25">
-        <f t="shared" si="2"/>
-        <v>2590</v>
-      </c>
-      <c r="H185" s="25">
-        <f t="shared" si="3"/>
-        <v>2563.56</v>
-      </c>
-      <c r="J185" s="30">
+        <v>2563.8999883636361</v>
+      </c>
+      <c r="J185" s="26">
         <f t="shared" si="0"/>
-        <v>7.4400000000000546</v>
+        <v>7.1000116363638881</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" s="4"/>
@@ -2451,33 +2463,34 @@
       <c r="P185" s="4"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
-      <c r="B186" s="23">
+      <c r="A186" s="10"/>
+      <c r="B186" s="19">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="C186" s="21">
+        <f t="shared" si="1"/>
+        <v>2468.3985454545455</v>
+      </c>
+      <c r="D186" s="22">
+        <v>2451</v>
+      </c>
+      <c r="E186" s="23">
+        <f t="shared" si="2"/>
+        <v>17.398545454545456</v>
+      </c>
+      <c r="F186" s="24"/>
+      <c r="G186" s="21">
+        <f t="shared" si="3"/>
+        <v>2468.3985454545455</v>
+      </c>
+      <c r="H186" s="21">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C186" s="25">
-        <v>2468</v>
-      </c>
-      <c r="D186" s="26">
-        <v>2451</v>
-      </c>
-      <c r="E186" s="27">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="F186" s="28"/>
-      <c r="G186" s="25">
-        <f t="shared" si="2"/>
-        <v>2468</v>
-      </c>
-      <c r="H186" s="25">
-        <f t="shared" si="3"/>
-        <v>2444.2440000000001</v>
-      </c>
-      <c r="J186" s="30">
+        <v>2444.6337774545455</v>
+      </c>
+      <c r="J186" s="26">
         <f t="shared" si="0"/>
-        <v>6.7559999999998581</v>
+        <v>6.3662225454545478</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" s="4"/>
@@ -2485,33 +2498,34 @@
       <c r="P186" s="4"/>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
-      <c r="B187" s="24">
+      <c r="A187" s="10"/>
+      <c r="B187" s="20">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="C187" s="21">
+        <f t="shared" si="1"/>
+        <v>2346.4494545454545</v>
+      </c>
+      <c r="D187" s="27">
+        <v>2330</v>
+      </c>
+      <c r="E187" s="23">
+        <f t="shared" si="2"/>
+        <v>16.4494545454545</v>
+      </c>
+      <c r="F187" s="24"/>
+      <c r="G187" s="21">
+        <f t="shared" si="3"/>
+        <v>2346.4494545454545</v>
+      </c>
+      <c r="H187" s="21">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="C187" s="25">
-        <v>2346</v>
-      </c>
-      <c r="D187" s="31">
-        <v>2330</v>
-      </c>
-      <c r="E187" s="27">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F187" s="28"/>
-      <c r="G187" s="25">
-        <f t="shared" si="2"/>
-        <v>2346</v>
-      </c>
-      <c r="H187" s="25">
-        <f t="shared" si="3"/>
-        <v>2324.9279999999999</v>
-      </c>
-      <c r="J187" s="30">
+        <v>2325.3675665454543</v>
+      </c>
+      <c r="J187" s="26">
         <f t="shared" si="0"/>
-        <v>5.0720000000001164</v>
+        <v>4.6324334545456622</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" s="4"/>
@@ -2519,33 +2533,34 @@
       <c r="P187" s="4"/>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
-      <c r="B188" s="23">
+      <c r="A188" s="10"/>
+      <c r="B188" s="19">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="C188" s="21">
+        <f t="shared" si="1"/>
+        <v>2224.5003636363635</v>
+      </c>
+      <c r="D188" s="22">
+        <v>2206</v>
+      </c>
+      <c r="E188" s="23">
+        <f t="shared" si="2"/>
+        <v>18.500363636363545</v>
+      </c>
+      <c r="F188" s="24"/>
+      <c r="G188" s="21">
+        <f t="shared" si="3"/>
+        <v>2224.5003636363635</v>
+      </c>
+      <c r="H188" s="21">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="C188" s="25">
-        <v>2225</v>
-      </c>
-      <c r="D188" s="26">
-        <v>2206</v>
-      </c>
-      <c r="E188" s="27">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="F188" s="28"/>
-      <c r="G188" s="25">
-        <f t="shared" si="2"/>
-        <v>2225</v>
-      </c>
-      <c r="H188" s="25">
-        <f t="shared" si="3"/>
-        <v>2206.59</v>
-      </c>
-      <c r="J188" s="30">
+        <v>2206.1013556363637</v>
+      </c>
+      <c r="J188" s="26">
         <f t="shared" si="0"/>
-        <v>-0.59000000000014552</v>
+        <v>-0.10135563636367806</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" s="4"/>
@@ -2553,34 +2568,35 @@
       <c r="P188" s="4"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
-      <c r="B189" s="24">
+      <c r="A189" s="10"/>
+      <c r="B189" s="20">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="C189" s="21">
+        <f t="shared" si="1"/>
+        <v>2102.5512727272726</v>
+      </c>
+      <c r="D189" s="27">
+        <v>2092</v>
+      </c>
+      <c r="E189" s="23">
+        <f t="shared" si="2"/>
+        <v>10.55127272727259</v>
+      </c>
+      <c r="F189" s="24"/>
+      <c r="G189" s="21">
+        <f t="shared" si="3"/>
+        <v>2102.5512727272726</v>
+      </c>
+      <c r="H189" s="21">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="C189" s="25">
-        <v>2103</v>
-      </c>
-      <c r="D189" s="31">
-        <v>2092</v>
-      </c>
-      <c r="E189" s="27">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F189" s="28"/>
-      <c r="G189" s="25">
-        <f t="shared" si="2"/>
-        <v>2103</v>
-      </c>
-      <c r="H189" s="25">
-        <f t="shared" si="3"/>
-        <v>2087.2739999999999</v>
-      </c>
-      <c r="I189" s="29"/>
-      <c r="J189" s="30">
+        <v>2086.8351447272726</v>
+      </c>
+      <c r="I189" s="25"/>
+      <c r="J189" s="26">
         <f t="shared" si="0"/>
-        <v>4.7260000000001128</v>
+        <v>5.1648552727274364</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="4"/>
@@ -2588,34 +2604,35 @@
       <c r="P189" s="4"/>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
-      <c r="B190" s="23">
+      <c r="A190" s="10"/>
+      <c r="B190" s="19">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="C190" s="21">
+        <f t="shared" si="1"/>
+        <v>1980.6021818181819</v>
+      </c>
+      <c r="D190" s="22">
+        <v>1983</v>
+      </c>
+      <c r="E190" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.3978181818181383</v>
+      </c>
+      <c r="F190" s="24"/>
+      <c r="G190" s="21">
+        <f t="shared" si="3"/>
+        <v>1980.6021818181819</v>
+      </c>
+      <c r="H190" s="21">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="C190" s="25">
-        <v>1981</v>
-      </c>
-      <c r="D190" s="26">
-        <v>1983</v>
-      </c>
-      <c r="E190" s="27">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F190" s="28"/>
-      <c r="G190" s="25">
-        <f t="shared" si="2"/>
-        <v>1981</v>
-      </c>
-      <c r="H190" s="25">
-        <f t="shared" si="3"/>
-        <v>1967.9579999999999</v>
-      </c>
-      <c r="I190" s="29"/>
-      <c r="J190" s="30">
+        <v>1967.5689338181817</v>
+      </c>
+      <c r="I190" s="25"/>
+      <c r="J190" s="26">
         <f t="shared" si="0"/>
-        <v>15.042000000000144</v>
+        <v>15.431066181818323</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" s="4"/>
@@ -2623,34 +2640,35 @@
       <c r="P190" s="4"/>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
-      <c r="B191" s="24">
+      <c r="A191" s="10"/>
+      <c r="B191" s="20">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="C191" s="21">
+        <f t="shared" si="1"/>
+        <v>1858.6530909090909</v>
+      </c>
+      <c r="D191" s="27">
+        <v>1862</v>
+      </c>
+      <c r="E191" s="23">
+        <f t="shared" si="2"/>
+        <v>-3.3469090909090937</v>
+      </c>
+      <c r="F191" s="24"/>
+      <c r="G191" s="21">
+        <f t="shared" si="3"/>
+        <v>1858.6530909090909</v>
+      </c>
+      <c r="H191" s="21">
         <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="C191" s="25">
-        <v>1859</v>
-      </c>
-      <c r="D191" s="31">
-        <v>1862</v>
-      </c>
-      <c r="E191" s="27">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F191" s="28"/>
-      <c r="G191" s="25">
-        <f t="shared" si="2"/>
-        <v>1859</v>
-      </c>
-      <c r="H191" s="25">
-        <f t="shared" si="3"/>
-        <v>1848.6419999999998</v>
-      </c>
-      <c r="I191" s="29"/>
-      <c r="J191" s="30">
+        <v>1848.3027229090908</v>
+      </c>
+      <c r="I191" s="25"/>
+      <c r="J191" s="26">
         <f t="shared" si="0"/>
-        <v>13.358000000000175</v>
+        <v>13.697277090909211</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="4"/>
@@ -2658,34 +2676,35 @@
       <c r="P191" s="4"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
-      <c r="B192" s="23">
+      <c r="A192" s="10"/>
+      <c r="B192" s="19">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="C192" s="21">
+        <f t="shared" si="1"/>
+        <v>1736.7040000000002</v>
+      </c>
+      <c r="D192" s="27">
+        <v>1739</v>
+      </c>
+      <c r="E192" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.2959999999998217</v>
+      </c>
+      <c r="F192" s="24"/>
+      <c r="G192" s="21">
+        <f t="shared" si="3"/>
+        <v>1736.7040000000002</v>
+      </c>
+      <c r="H192" s="21">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="C192" s="25">
-        <v>1737</v>
-      </c>
-      <c r="D192" s="31">
-        <v>1739</v>
-      </c>
-      <c r="E192" s="27">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F192" s="28"/>
-      <c r="G192" s="25">
-        <f t="shared" si="2"/>
-        <v>1737</v>
-      </c>
-      <c r="H192" s="25">
-        <f t="shared" si="3"/>
-        <v>1729.326</v>
-      </c>
-      <c r="I192" s="29"/>
-      <c r="J192" s="30">
+        <v>1729.0365120000001</v>
+      </c>
+      <c r="I192" s="25"/>
+      <c r="J192" s="26">
         <f t="shared" si="0"/>
-        <v>9.6739999999999782</v>
+        <v>9.9634879999998702</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="4"/>
@@ -2693,34 +2712,35 @@
       <c r="P192" s="4"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
-      <c r="B193" s="24">
+      <c r="A193" s="10"/>
+      <c r="B193" s="20">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="C193" s="21">
+        <f t="shared" si="1"/>
+        <v>1614.754909090909</v>
+      </c>
+      <c r="D193" s="27">
+        <v>1616</v>
+      </c>
+      <c r="E193" s="23">
+        <f t="shared" si="2"/>
+        <v>-1.2450909090910045</v>
+      </c>
+      <c r="F193" s="24"/>
+      <c r="G193" s="21">
+        <f t="shared" si="3"/>
+        <v>1614.754909090909</v>
+      </c>
+      <c r="H193" s="21">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="C193" s="25">
-        <v>1615</v>
-      </c>
-      <c r="D193" s="31">
-        <v>1616</v>
-      </c>
-      <c r="E193" s="27">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F193" s="28"/>
-      <c r="G193" s="25">
-        <f t="shared" si="2"/>
-        <v>1615</v>
-      </c>
-      <c r="H193" s="25">
-        <f t="shared" si="3"/>
-        <v>1610.01</v>
-      </c>
-      <c r="I193" s="29"/>
-      <c r="J193" s="30">
+        <v>1609.770301090909</v>
+      </c>
+      <c r="I193" s="25"/>
+      <c r="J193" s="26">
         <f t="shared" si="0"/>
-        <v>5.9900000000000091</v>
+        <v>6.2296989090909847</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="4"/>
@@ -2728,34 +2748,35 @@
       <c r="P193" s="4"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
-      <c r="B194" s="23">
+      <c r="A194" s="10"/>
+      <c r="B194" s="19">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="C194" s="21">
+        <f t="shared" si="1"/>
+        <v>1492.805818181818</v>
+      </c>
+      <c r="D194" s="22">
+        <v>1493</v>
+      </c>
+      <c r="E194" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.1941818181819599</v>
+      </c>
+      <c r="F194" s="24"/>
+      <c r="G194" s="21">
+        <f t="shared" si="3"/>
+        <v>1492.805818181818</v>
+      </c>
+      <c r="H194" s="21">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="C194" s="25">
-        <v>1493</v>
-      </c>
-      <c r="D194" s="26">
-        <v>1493</v>
-      </c>
-      <c r="E194" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F194" s="28"/>
-      <c r="G194" s="25">
-        <f t="shared" si="2"/>
-        <v>1493</v>
-      </c>
-      <c r="H194" s="25">
-        <f t="shared" si="3"/>
-        <v>1490.694</v>
-      </c>
-      <c r="I194" s="29"/>
-      <c r="J194" s="30">
+        <v>1490.5040901818179</v>
+      </c>
+      <c r="I194" s="25"/>
+      <c r="J194" s="26">
         <f t="shared" si="0"/>
-        <v>2.30600000000004</v>
+        <v>2.4959098181820991</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="4"/>
@@ -2763,34 +2784,35 @@
       <c r="P194" s="4"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
-      <c r="B195" s="24">
+      <c r="A195" s="10"/>
+      <c r="B195" s="20">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="C195" s="21">
+        <f t="shared" si="1"/>
+        <v>1370.8567272727273</v>
+      </c>
+      <c r="D195" s="27">
+        <v>1373</v>
+      </c>
+      <c r="E195" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.1432727272726879</v>
+      </c>
+      <c r="F195" s="24"/>
+      <c r="G195" s="21">
+        <f t="shared" si="3"/>
+        <v>1370.8567272727273</v>
+      </c>
+      <c r="H195" s="21">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="C195" s="25">
-        <v>1371</v>
-      </c>
-      <c r="D195" s="31">
-        <v>1373</v>
-      </c>
-      <c r="E195" s="27">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F195" s="28"/>
-      <c r="G195" s="25">
-        <f t="shared" si="2"/>
-        <v>1371</v>
-      </c>
-      <c r="H195" s="25">
-        <f t="shared" si="3"/>
-        <v>1371.3779999999999</v>
-      </c>
-      <c r="I195" s="29"/>
-      <c r="J195" s="30">
+        <v>1371.2378792727272</v>
+      </c>
+      <c r="I195" s="25"/>
+      <c r="J195" s="26">
         <f t="shared" si="0"/>
-        <v>1.6220000000000709</v>
+        <v>1.7621207272727588</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="4"/>
@@ -2798,34 +2820,35 @@
       <c r="P195" s="4"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
-      <c r="B196" s="23">
+      <c r="A196" s="10"/>
+      <c r="B196" s="19">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="C196" s="21">
+        <f t="shared" si="1"/>
+        <v>1248.9076363636361</v>
+      </c>
+      <c r="D196" s="22">
+        <v>1250</v>
+      </c>
+      <c r="E196" s="23">
+        <f t="shared" si="2"/>
+        <v>-1.0923636363638707</v>
+      </c>
+      <c r="F196" s="24"/>
+      <c r="G196" s="21">
+        <f t="shared" si="3"/>
+        <v>1248.9076363636361</v>
+      </c>
+      <c r="H196" s="21">
         <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="C196" s="25">
-        <v>1249</v>
-      </c>
-      <c r="D196" s="26">
-        <v>1250</v>
-      </c>
-      <c r="E196" s="27">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F196" s="28"/>
-      <c r="G196" s="25">
-        <f t="shared" si="2"/>
-        <v>1249</v>
-      </c>
-      <c r="H196" s="25">
-        <f t="shared" si="3"/>
-        <v>1252.0619999999999</v>
-      </c>
-      <c r="I196" s="29"/>
-      <c r="J196" s="30">
+        <v>1251.9716683636361</v>
+      </c>
+      <c r="I196" s="25"/>
+      <c r="J196" s="26">
         <f t="shared" si="0"/>
-        <v>-2.0619999999998981</v>
+        <v>-1.9716683636361267</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="4"/>
@@ -2833,34 +2856,35 @@
       <c r="P196" s="4"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
-      <c r="B197" s="24">
+      <c r="A197" s="10"/>
+      <c r="B197" s="20">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="C197" s="21">
+        <f t="shared" si="1"/>
+        <v>1126.9585454545456</v>
+      </c>
+      <c r="D197" s="27">
+        <v>1128</v>
+      </c>
+      <c r="E197" s="23">
+        <f t="shared" si="2"/>
+        <v>-1.0414545454543713</v>
+      </c>
+      <c r="F197" s="24"/>
+      <c r="G197" s="21">
+        <f t="shared" si="3"/>
+        <v>1126.9585454545456</v>
+      </c>
+      <c r="H197" s="21">
         <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="C197" s="25">
-        <v>1127</v>
-      </c>
-      <c r="D197" s="31">
-        <v>1128</v>
-      </c>
-      <c r="E197" s="27">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F197" s="28"/>
-      <c r="G197" s="25">
-        <f t="shared" si="2"/>
-        <v>1127</v>
-      </c>
-      <c r="H197" s="25">
-        <f t="shared" si="3"/>
-        <v>1132.7459999999999</v>
-      </c>
-      <c r="I197" s="29"/>
-      <c r="J197" s="30">
+        <v>1132.7054574545455</v>
+      </c>
+      <c r="I197" s="25"/>
+      <c r="J197" s="26">
         <f t="shared" si="0"/>
-        <v>-4.7459999999998672</v>
+        <v>-4.705457454545467</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="4"/>
@@ -2868,34 +2892,35 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
-      <c r="B198" s="23">
+      <c r="A198" s="10"/>
+      <c r="B198" s="19">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="C198" s="21">
+        <f t="shared" si="1"/>
+        <v>1005.0094545454544</v>
+      </c>
+      <c r="D198" s="22">
+        <v>1009</v>
+      </c>
+      <c r="E198" s="23">
+        <f t="shared" si="2"/>
+        <v>-3.9905454545455541</v>
+      </c>
+      <c r="F198" s="24"/>
+      <c r="G198" s="21">
+        <f t="shared" si="3"/>
+        <v>1005.0094545454544</v>
+      </c>
+      <c r="H198" s="21">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="C198" s="25">
-        <v>1005</v>
-      </c>
-      <c r="D198" s="26">
-        <v>1009</v>
-      </c>
-      <c r="E198" s="27">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F198" s="28"/>
-      <c r="G198" s="25">
-        <f t="shared" si="2"/>
-        <v>1005</v>
-      </c>
-      <c r="H198" s="25">
-        <f t="shared" si="3"/>
-        <v>1013.43</v>
-      </c>
-      <c r="I198" s="29"/>
-      <c r="J198" s="30">
+        <v>1013.4392465454544</v>
+      </c>
+      <c r="I198" s="25"/>
+      <c r="J198" s="26">
         <f t="shared" si="0"/>
-        <v>-4.42999999999995</v>
+        <v>-4.4392465454543526</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -2903,34 +2928,35 @@
       <c r="P198" s="2"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
-      <c r="B199" s="24">
+      <c r="A199" s="10"/>
+      <c r="B199" s="20">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="C199" s="21">
+        <f t="shared" si="1"/>
+        <v>883.06036363636326</v>
+      </c>
+      <c r="D199" s="27">
+        <v>892</v>
+      </c>
+      <c r="E199" s="23">
+        <f t="shared" si="2"/>
+        <v>-8.9396363636367369</v>
+      </c>
+      <c r="F199" s="24"/>
+      <c r="G199" s="21">
+        <f t="shared" si="3"/>
+        <v>883.06036363636326</v>
+      </c>
+      <c r="H199" s="21">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="C199" s="25">
-        <v>883</v>
-      </c>
-      <c r="D199" s="31">
-        <v>892</v>
-      </c>
-      <c r="E199" s="27">
-        <f t="shared" si="1"/>
-        <v>-9</v>
-      </c>
-      <c r="F199" s="28"/>
-      <c r="G199" s="25">
-        <f t="shared" si="2"/>
-        <v>883</v>
-      </c>
-      <c r="H199" s="25">
-        <f t="shared" si="3"/>
-        <v>894.11399999999992</v>
-      </c>
-      <c r="I199" s="29"/>
-      <c r="J199" s="30">
+        <v>894.17303563636324</v>
+      </c>
+      <c r="I199" s="25"/>
+      <c r="J199" s="26">
         <f t="shared" si="0"/>
-        <v>-2.1139999999999191</v>
+        <v>-2.1730356363632382</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -2938,166 +2964,171 @@
       <c r="P199" s="2"/>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
-      <c r="B200" s="23">
+      <c r="A200" s="10"/>
+      <c r="B200" s="19">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="C200" s="21">
+        <f t="shared" si="1"/>
+        <v>761.11127272727276</v>
+      </c>
+      <c r="D200" s="22">
+        <v>775</v>
+      </c>
+      <c r="E200" s="23">
+        <f t="shared" si="2"/>
+        <v>-13.888727272727238</v>
+      </c>
+      <c r="F200" s="24"/>
+      <c r="G200" s="21">
+        <f t="shared" si="3"/>
+        <v>761.11127272727276</v>
+      </c>
+      <c r="H200" s="21">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="C200" s="25">
-        <v>761</v>
-      </c>
-      <c r="D200" s="26">
-        <v>775</v>
-      </c>
-      <c r="E200" s="27">
+        <v>774.90682472727269</v>
+      </c>
+      <c r="I200" s="25"/>
+      <c r="J200" s="26">
+        <f t="shared" si="0"/>
+        <v>9.3175272727307856E-2</v>
+      </c>
+      <c r="M200" s="2"/>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" s="10"/>
+      <c r="B201" s="20">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="C201" s="21">
         <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-      <c r="F200" s="28"/>
-      <c r="G200" s="25">
+        <v>639.16218181818158</v>
+      </c>
+      <c r="D201" s="27">
+        <v>655</v>
+      </c>
+      <c r="E201" s="23">
         <f t="shared" si="2"/>
-        <v>761</v>
-      </c>
-      <c r="H200" s="25">
+        <v>-15.83781818181842</v>
+      </c>
+      <c r="F201" s="24"/>
+      <c r="G201" s="21">
         <f t="shared" si="3"/>
-        <v>774.798</v>
-      </c>
-      <c r="I200" s="29"/>
-      <c r="J200" s="30">
+        <v>639.16218181818158</v>
+      </c>
+      <c r="H201" s="21">
+        <f t="shared" si="4"/>
+        <v>655.64061381818158</v>
+      </c>
+      <c r="I201" s="25"/>
+      <c r="J201" s="26">
         <f t="shared" si="0"/>
-        <v>0.20199999999999818</v>
-      </c>
-      <c r="M200" s="2"/>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
-      <c r="B201" s="24">
+        <v>-0.6406138181815777</v>
+      </c>
+      <c r="M201" s="2"/>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202" s="10"/>
+      <c r="B202" s="19">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="C202" s="21">
+        <f t="shared" si="1"/>
+        <v>517.21309090909051</v>
+      </c>
+      <c r="D202" s="22">
+        <v>531</v>
+      </c>
+      <c r="E202" s="23">
+        <f t="shared" si="2"/>
+        <v>-13.786909090909489</v>
+      </c>
+      <c r="F202" s="24"/>
+      <c r="G202" s="21">
+        <f t="shared" si="3"/>
+        <v>517.21309090909051</v>
+      </c>
+      <c r="H202" s="21">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="C201" s="25">
-        <v>639</v>
-      </c>
-      <c r="D201" s="31">
-        <v>655</v>
-      </c>
-      <c r="E201" s="27">
+        <v>536.37440290909046</v>
+      </c>
+      <c r="I202" s="25"/>
+      <c r="J202" s="26">
+        <f t="shared" si="0"/>
+        <v>-5.3744029090904633</v>
+      </c>
+      <c r="M202" s="2"/>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" s="10"/>
+      <c r="B203" s="20">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="C203" s="21">
         <f t="shared" si="1"/>
-        <v>-16</v>
-      </c>
-      <c r="F201" s="28"/>
-      <c r="G201" s="25">
+        <v>395.2639999999999</v>
+      </c>
+      <c r="D203" s="27">
+        <v>411</v>
+      </c>
+      <c r="E203" s="23">
         <f t="shared" si="2"/>
-        <v>639</v>
-      </c>
-      <c r="H201" s="25">
+        <v>-15.736000000000104</v>
+      </c>
+      <c r="F203" s="24"/>
+      <c r="G203" s="21">
         <f t="shared" si="3"/>
-        <v>655.48199999999997</v>
-      </c>
-      <c r="I201" s="29"/>
-      <c r="J201" s="30">
+        <v>395.2639999999999</v>
+      </c>
+      <c r="H203" s="21">
+        <f t="shared" si="4"/>
+        <v>417.10819199999992</v>
+      </c>
+      <c r="I203" s="25"/>
+      <c r="J203" s="26">
         <f t="shared" si="0"/>
-        <v>-0.4819999999999709</v>
-      </c>
-      <c r="M201" s="2"/>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
-      <c r="B202" s="23">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="C202" s="25">
-        <v>517</v>
-      </c>
-      <c r="D202" s="26">
-        <v>531</v>
-      </c>
-      <c r="E202" s="27">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-      <c r="F202" s="28"/>
-      <c r="G202" s="25">
-        <f t="shared" si="2"/>
-        <v>517</v>
-      </c>
-      <c r="H202" s="25">
-        <f t="shared" si="3"/>
-        <v>536.16599999999994</v>
-      </c>
-      <c r="I202" s="29"/>
-      <c r="J202" s="30">
-        <f t="shared" si="0"/>
-        <v>-5.16599999999994</v>
-      </c>
-      <c r="M202" s="2"/>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
-      <c r="B203" s="24">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="C203" s="25">
-        <v>395</v>
-      </c>
-      <c r="D203" s="31">
-        <v>411</v>
-      </c>
-      <c r="E203" s="27">
-        <f t="shared" si="1"/>
-        <v>-16</v>
-      </c>
-      <c r="F203" s="28"/>
-      <c r="G203" s="25">
-        <f t="shared" si="2"/>
-        <v>395</v>
-      </c>
-      <c r="H203" s="25">
-        <f t="shared" si="3"/>
-        <v>416.85</v>
-      </c>
-      <c r="I203" s="29"/>
-      <c r="J203" s="30">
-        <f t="shared" si="0"/>
-        <v>-5.8500000000000227</v>
+        <v>-6.1081919999999172</v>
       </c>
       <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B204" s="23">
+      <c r="B204" s="19">
         <f>B203+1</f>
         <v>30</v>
       </c>
-      <c r="C204" s="25">
-        <v>273</v>
-      </c>
-      <c r="D204" s="32">
+      <c r="C204" s="21">
+        <f t="shared" si="1"/>
+        <v>273.31490909090877</v>
+      </c>
+      <c r="D204" s="28">
         <v>289</v>
       </c>
-      <c r="E204" s="27">
-        <f t="shared" si="1"/>
-        <v>-16</v>
-      </c>
-      <c r="F204" s="29"/>
-      <c r="G204" s="25">
+      <c r="E204" s="23">
+        <f t="shared" si="2"/>
+        <v>-15.68509090909123</v>
+      </c>
+      <c r="F204" s="25"/>
+      <c r="G204" s="21">
         <f>C204</f>
-        <v>273</v>
-      </c>
-      <c r="H204" s="25">
-        <f t="shared" si="3"/>
-        <v>297.53399999999999</v>
-      </c>
-      <c r="I204" s="29"/>
-      <c r="J204" s="30">
+        <v>273.31490909090877</v>
+      </c>
+      <c r="H204" s="21">
+        <f t="shared" si="4"/>
+        <v>297.8419810909088</v>
+      </c>
+      <c r="I204" s="25"/>
+      <c r="J204" s="26">
         <f t="shared" si="0"/>
-        <v>-8.5339999999999918</v>
+        <v>-8.8419810909088028</v>
       </c>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I205" s="29"/>
+      <c r="I205" s="25"/>
       <c r="M205" s="2"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
@@ -3108,7 +3139,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
-      <c r="I206" s="29"/>
+      <c r="I206" s="25"/>
       <c r="M206" s="2"/>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
@@ -3119,7 +3150,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
-      <c r="I207" s="29"/>
+      <c r="I207" s="25"/>
       <c r="M207" s="2"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
@@ -3130,7 +3161,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
-      <c r="I208" s="29"/>
+      <c r="I208" s="25"/>
       <c r="M208" s="2"/>
     </row>
     <row r="209" spans="2:13" x14ac:dyDescent="0.25">
@@ -3141,7 +3172,7 @@
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
-      <c r="I209" s="29"/>
+      <c r="I209" s="25"/>
       <c r="M209" s="2"/>
     </row>
     <row r="210" spans="2:13" x14ac:dyDescent="0.25">
@@ -3152,18 +3183,18 @@
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
-      <c r="I210" s="29"/>
+      <c r="I210" s="25"/>
       <c r="M210" s="2"/>
     </row>
     <row r="211" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
-      <c r="C211" s="22"/>
+      <c r="C211" s="18"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
-      <c r="G211" s="22"/>
+      <c r="G211" s="18"/>
       <c r="H211" s="2"/>
-      <c r="I211" s="29"/>
+      <c r="I211" s="25"/>
       <c r="M211" s="2"/>
     </row>
     <row r="212" spans="2:13" x14ac:dyDescent="0.25">
@@ -3174,7 +3205,7 @@
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
-      <c r="I212" s="29"/>
+      <c r="I212" s="25"/>
       <c r="M212" s="2"/>
     </row>
     <row r="213" spans="2:13" x14ac:dyDescent="0.25">
@@ -3185,7 +3216,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
-      <c r="I213" s="29"/>
+      <c r="I213" s="25"/>
       <c r="M213" s="2"/>
     </row>
     <row r="214" spans="2:13" x14ac:dyDescent="0.25">
@@ -3196,7 +3227,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
-      <c r="I214" s="29"/>
+      <c r="I214" s="25"/>
       <c r="M214" s="2"/>
     </row>
     <row r="215" spans="2:13" x14ac:dyDescent="0.25">
@@ -3207,7 +3238,7 @@
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
-      <c r="I215" s="29"/>
+      <c r="I215" s="25"/>
       <c r="M215" s="2"/>
     </row>
     <row r="216" spans="2:13" x14ac:dyDescent="0.25">
@@ -3218,29 +3249,29 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
-      <c r="I216" s="29"/>
+      <c r="I216" s="25"/>
       <c r="M216" s="2"/>
     </row>
     <row r="217" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
-      <c r="C217" s="22"/>
+      <c r="C217" s="18"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
-      <c r="G217" s="22"/>
+      <c r="G217" s="18"/>
       <c r="H217" s="2"/>
-      <c r="I217" s="29"/>
+      <c r="I217" s="25"/>
       <c r="M217" s="2"/>
     </row>
     <row r="218" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
-      <c r="C218" s="15"/>
+      <c r="C218" s="11"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
-      <c r="G218" s="15"/>
+      <c r="G218" s="11"/>
       <c r="H218" s="2"/>
-      <c r="I218" s="29"/>
+      <c r="I218" s="25"/>
     </row>
     <row r="219" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
@@ -3250,7 +3281,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
-      <c r="I219" s="29"/>
+      <c r="I219" s="25"/>
     </row>
     <row r="220" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
@@ -3265,12 +3296,12 @@
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
-      <c r="E221" s="22"/>
+      <c r="E221" s="18"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
-      <c r="J221" s="17"/>
+      <c r="J221" s="13"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
     </row>
@@ -3283,7 +3314,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
-      <c r="J222" s="17"/>
+      <c r="J222" s="13"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
     </row>
@@ -3296,37 +3327,37 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
-      <c r="J223" s="17"/>
+      <c r="J223" s="13"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
     </row>
     <row r="224" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I224" s="2"/>
-      <c r="J224" s="17"/>
+      <c r="J224" s="13"/>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
     </row>
     <row r="225" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I225" s="2"/>
-      <c r="J225" s="17"/>
+      <c r="J225" s="13"/>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
     <row r="226" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I226" s="2"/>
-      <c r="J226" s="17"/>
-      <c r="K226" s="22"/>
+      <c r="J226" s="13"/>
+      <c r="K226" s="18"/>
       <c r="L226" s="2"/>
     </row>
     <row r="227" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I227" s="2"/>
-      <c r="J227" s="17"/>
-      <c r="K227" s="15"/>
+      <c r="J227" s="13"/>
+      <c r="K227" s="11"/>
       <c r="L227" s="2"/>
     </row>
     <row r="228" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I228" s="2"/>
-      <c r="J228" s="17"/>
+      <c r="J228" s="13"/>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
     </row>
